--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -4,43 +4,32 @@
   <fileVersion appName="Calc"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="27" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="12" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="24" r:id="rId4"/>
-    <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
-    <sheet name="February 2020" sheetId="13" r:id="rId6"/>
-    <sheet name="$February 2020" sheetId="25" r:id="rId7"/>
-    <sheet name="~March 2020" sheetId="3" r:id="rId8"/>
-    <sheet name="March 2020" sheetId="14" r:id="rId9"/>
-    <sheet name="$March 2020" sheetId="26" r:id="rId10"/>
-    <sheet name="~April 2020" sheetId="4" r:id="rId11"/>
-    <sheet name="April 2020" sheetId="15" r:id="rId12"/>
-    <sheet name="$April 2020" sheetId="27" r:id="rId13"/>
-    <sheet name="~May 2020" sheetId="5" r:id="rId14"/>
-    <sheet name="May 2020" sheetId="16" r:id="rId15"/>
-    <sheet name="$May 2020" sheetId="28" r:id="rId16"/>
-    <sheet name="~June 2020" sheetId="6" r:id="rId17"/>
-    <sheet name="June 2020" sheetId="17" r:id="rId18"/>
-    <sheet name="$June 2020" sheetId="29" r:id="rId19"/>
-    <sheet name="~July 2020" sheetId="7" r:id="rId20"/>
-    <sheet name="July 2020" sheetId="18" r:id="rId21"/>
-    <sheet name="$July 2020" sheetId="30" r:id="rId22"/>
-    <sheet name="~August 2020" sheetId="8" r:id="rId23"/>
-    <sheet name="August 2020" sheetId="19" r:id="rId24"/>
-    <sheet name="$August 2020" sheetId="31" r:id="rId25"/>
-    <sheet name="~September 2020" sheetId="9" r:id="rId26"/>
-    <sheet name="September 2020" sheetId="20" r:id="rId27"/>
-    <sheet name="$September 2020" sheetId="32" r:id="rId28"/>
-    <sheet name="~October 2020" sheetId="10" r:id="rId29"/>
-    <sheet name="October 2020" sheetId="21" r:id="rId30"/>
-    <sheet name="$October 2020" sheetId="33" r:id="rId31"/>
-    <sheet name="~November 2020" sheetId="11" r:id="rId32"/>
-    <sheet name="November 2020" sheetId="22" r:id="rId33"/>
-    <sheet name="$November 2020" sheetId="34" r:id="rId34"/>
-    <sheet name="#November 2020" sheetId="23" r:id="rId35"/>
+    <sheet name="~February 2020" sheetId="2" r:id="rId4"/>
+    <sheet name="February 2020" sheetId="13" r:id="rId5"/>
+    <sheet name="~March 2020" sheetId="3" r:id="rId6"/>
+    <sheet name="March 2020" sheetId="14" r:id="rId7"/>
+    <sheet name="~April 2020" sheetId="4" r:id="rId8"/>
+    <sheet name="April 2020" sheetId="15" r:id="rId9"/>
+    <sheet name="~May 2020" sheetId="5" r:id="rId10"/>
+    <sheet name="May 2020" sheetId="16" r:id="rId11"/>
+    <sheet name="~June 2020" sheetId="6" r:id="rId12"/>
+    <sheet name="June 2020" sheetId="17" r:id="rId13"/>
+    <sheet name="~July 2020" sheetId="7" r:id="rId14"/>
+    <sheet name="July 2020" sheetId="18" r:id="rId15"/>
+    <sheet name="~August 2020" sheetId="8" r:id="rId16"/>
+    <sheet name="August 2020" sheetId="19" r:id="rId17"/>
+    <sheet name="~September 2020" sheetId="9" r:id="rId18"/>
+    <sheet name="September 2020" sheetId="20" r:id="rId19"/>
+    <sheet name="~October 2020" sheetId="10" r:id="rId20"/>
+    <sheet name="October 2020" sheetId="21" r:id="rId21"/>
+    <sheet name="~November 2020" sheetId="11" r:id="rId22"/>
+    <sheet name="November 2020" sheetId="22" r:id="rId23"/>
+    <sheet name="#November 2020" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -49,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="120">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -243,9 +232,32 @@
     <t>PPSNO</t>
   </si>
   <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Refno 0798147 does not exist for Scheme ID 601010
+PPS number 4073312M does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0913434 does not exist for Scheme ID 601010
+PPS number 5439331U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0899555 does not exist for Scheme ID 601010
+PPS number 2576389U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>899555</t>
   </si>
   <si>
+    <t>Refno 0969877 does not exist for Scheme ID 601010
+PPS number 6187938N does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>969877</t>
   </si>
   <si>
@@ -258,22 +270,175 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>7721.49</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>72679.83</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1161520</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>ILIM Test 2</t>
+  </si>
+  <si>
+    <t>1158565</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>7,433.97</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1155233</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>4,282.75</t>
+  </si>
+  <si>
+    <t>ILIM R. O'Brien TVIN</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -291,7 +456,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -371,6 +536,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -378,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,18 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +628,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -633,18 +801,17 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,307 +1449,9 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43922.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.4">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13">
-        <v>6280.0</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14">
-        <f>SUM(G7+I7)</f>
-        <v>6280.0</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(E8*F8)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="11">
-        <f>SUM(E8*H8)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J8" s="20">
-        <f>SUM(G8+I8)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.08269998</v>
-      </c>
-      <c r="G9" s="13">
-        <f>SUM(E9*F9)</f>
-        <v>1791.8331756666</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I9" s="13">
-        <f>SUM(E9*H9)</f>
-        <v>650.0001</v>
-      </c>
-      <c r="J9" s="14">
-        <f>SUM(G9+I9)</f>
-        <v>2441.8332756666</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14">
-        <f>SUM(G6:G9)</f>
-        <v>9853.4999756666</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <f>SUM(I6:I9)</f>
-        <v>1650.0001</v>
-      </c>
-      <c r="J10" s="24">
-        <f>SUM(J6:J9)</f>
-        <v>11503.5000756666</v>
-      </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="12" spans="7:7" ht="14.4">
-      <c r="G12">
-        <v>6280.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1590,11 +1459,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -1611,14 +1480,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1632,14 +1506,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>7211.67</v>
+        <v>23291.67</v>
       </c>
       <c r="G2" s="43">
+        <v>931.67</v>
+      </c>
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1653,16 +1532,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1674,10 +1558,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>1791.83</v>
+        <v>21666.67</v>
       </c>
       <c r="G4" s="43">
-        <v>650.0</v>
+        <v>3088.11</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1510.0</v>
       </c>
     </row>
   </sheetData>
@@ -1686,459 +1573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43952.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G7" s="11">
-        <f>SUM(E7*F7)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="11">
-        <f>SUM(E7*H7)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="20">
-        <f>SUM(G7+I7)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4">
-      <c r="A8" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.142528</v>
-      </c>
-      <c r="G8" s="13">
-        <f>SUM(E8*F8)</f>
-        <v>3088.10714176</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.0696922</v>
-      </c>
-      <c r="I8" s="13">
-        <f>SUM(E8*H8)</f>
-        <v>1509.997898974</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(G8+I8)</f>
-        <v>4598.105040734</v>
-      </c>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14">
-        <f>SUM(G6:G8)</f>
-        <v>4869.77394176</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <f>SUM(I6:I8)</f>
-        <v>2509.997898974</v>
-      </c>
-      <c r="J9" s="24">
-        <f>SUM(J6:J8)</f>
-        <v>7379.771840734</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>931.67</v>
-      </c>
-      <c r="G2" s="43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>3088.11</v>
-      </c>
-      <c r="G4" s="43">
-        <v>1510.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -2601,12 +2036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2614,11 +2049,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2635,14 +2070,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2656,14 +2096,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>931.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2677,16 +2122,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2698,9 +2148,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
@@ -2710,49 +2163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -3268,12 +2679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -3281,11 +2692,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3302,14 +2713,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3323,14 +2739,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>906.67</v>
+        <v>23291.67</v>
       </c>
       <c r="G2" s="43">
+        <v>931.67</v>
+      </c>
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3344,16 +2765,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>814.58</v>
+        <v>10000.0</v>
       </c>
       <c r="G3" s="43">
-        <v>958.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+        <v>850.0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3365,10 +2791,39 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>1598.87</v>
+        <v>21666.67</v>
       </c>
       <c r="G4" s="43">
-        <v>580.0</v>
+        <v>2324.83</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="43">
+        <v>10666.67</v>
+      </c>
+      <c r="G5" s="43">
+        <v>426.67</v>
+      </c>
+      <c r="H5" s="43">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3377,179 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>931.67</v>
-      </c>
-      <c r="G2" s="43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="G4" s="43">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="43">
-        <v>426.67</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -4287,12 +3570,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -4300,11 +3583,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4321,14 +3604,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4342,14 +3630,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>116458.35</v>
+      </c>
+      <c r="G2" s="43">
         <v>3673.31</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -4363,16 +3656,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4384,16 +3682,21 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4405,9 +3708,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>20000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>744.8</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>413.33</v>
       </c>
     </row>
@@ -4417,49 +3723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -5003,12 +4267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5016,11 +4280,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5037,14 +4301,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5058,14 +4327,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>1480.0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5079,16 +4353,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5100,16 +4379,21 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5121,9 +4405,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>566.66</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -5133,49 +4420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -5719,12 +4964,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5732,11 +4977,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5753,14 +4998,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5774,14 +5024,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>1480.0</v>
+        <v>22666.67</v>
       </c>
       <c r="G2" s="43">
+        <v>906.67</v>
+      </c>
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5795,16 +5050,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>850.0</v>
+        <v>9583.33</v>
       </c>
       <c r="G3" s="43">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+        <v>814.58</v>
+      </c>
+      <c r="H3" s="43">
+        <v>958.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5816,31 +5076,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>2324.83</v>
+        <v>19333.33</v>
       </c>
       <c r="G4" s="43">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="43">
-        <v>566.66</v>
-      </c>
-      <c r="G5" s="43">
-        <v>200.0</v>
+        <v>1598.87</v>
+      </c>
+      <c r="H4" s="43">
+        <v>580.0</v>
       </c>
     </row>
   </sheetData>
@@ -5849,40 +5091,151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
+        <v>1480.0</v>
+      </c>
+      <c r="H2" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>850.0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
+        <v>2324.83</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
+      <c r="C5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>566.66</v>
+      </c>
+      <c r="H5" s="43">
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -5891,49 +5244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6477,12 +5788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6490,11 +5801,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6511,14 +5822,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6532,14 +5848,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>1480.0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6553,16 +5874,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6574,16 +5900,21 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -6595,9 +5926,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>566.66</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -6607,51 +5941,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6659,43 +5951,348 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="1" width="17.75" style="43"/>
+    <col min="2" max="2" width="14.125" style="43"/>
+    <col min="3" max="3" width="8.25" style="43"/>
+    <col min="4" max="4" width="15.75" style="43"/>
+    <col min="5" max="5" width="13.25" style="43"/>
+    <col min="6" max="6" width="12.625" style="43"/>
+    <col min="7" max="7" width="15.75" style="43"/>
+    <col min="8" max="8" width="10.5" style="43"/>
+    <col min="9" max="9" width="22.125" style="43"/>
+    <col min="10" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="43">
+        <v>64958.34</v>
+      </c>
+      <c r="B2" s="43">
         <v>5221.49</v>
       </c>
-      <c r="B2" s="43">
+      <c r="C2" s="43">
         <v>2500.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +6301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6963,12 +6560,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6976,11 +6573,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6997,14 +6594,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7018,14 +6620,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>22666.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>906.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7039,16 +6646,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>9583.33</v>
+      </c>
+      <c r="G3" s="43">
         <v>814.58</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7060,9 +6672,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>19333.33</v>
+      </c>
+      <c r="G4" s="43">
         <v>1598.87</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -7072,49 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -7373,12 +6946,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -7386,11 +6959,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -7407,14 +6980,19 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7428,14 +7006,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>22666.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>906.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7449,16 +7032,21 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>9583.33</v>
+      </c>
+      <c r="G3" s="43">
         <v>814.58</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7470,10 +7058,438 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>19333.33</v>
+      </c>
+      <c r="G4" s="43">
         <v>1598.87</v>
       </c>
+      <c r="H4" s="43">
+        <v>580.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43922.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13">
+        <v>6280.0</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>SUM(G7+I7)</f>
+        <v>6280.0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(E8*F8)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="11">
+        <f>SUM(E8*H8)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUM(G8+I8)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.08269998</v>
+      </c>
+      <c r="G9" s="13">
+        <f>SUM(E9*F9)</f>
+        <v>1791.8331756666</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="13">
+        <f>SUM(E9*H9)</f>
+        <v>650.0001</v>
+      </c>
+      <c r="J9" s="14">
+        <f>SUM(G9+I9)</f>
+        <v>2441.8332756666</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14">
+        <f>SUM(G6:G9)</f>
+        <v>9853.4999756666</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <f>SUM(I6:I9)</f>
+        <v>1650.0001</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUM(J6:J9)</f>
+        <v>11503.5000756666</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="12" spans="7:7" ht="14.4">
+      <c r="G12">
+        <v>6280.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="55" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
+        <v>7211.67</v>
+      </c>
+      <c r="H2" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>850.0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
       <c r="G4" s="43">
-        <v>580.0</v>
+        <v>1791.83</v>
+      </c>
+      <c r="H4" s="43">
+        <v>650.0</v>
       </c>
     </row>
   </sheetData>
@@ -7485,41 +7501,258 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>63</v>
-      </c>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43952.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(E7*F7)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="11">
+        <f>SUM(E7*H7)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="20">
+        <f>SUM(G7+I7)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.142528</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(E8*F8)</f>
+        <v>3088.10714176</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.0696922</v>
+      </c>
+      <c r="I8" s="13">
+        <f>SUM(E8*H8)</f>
+        <v>1509.997898974</v>
+      </c>
+      <c r="J8" s="14">
+        <f>SUM(G8+I8)</f>
+        <v>4598.105040734</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14">
+        <f>SUM(G6:G8)</f>
+        <v>4869.77394176</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
+        <f>SUM(I6:I8)</f>
+        <v>2509.997898974</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(J6:J8)</f>
+        <v>7379.771840734</v>
+      </c>
+      <c r="K9" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="118">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -232,9 +232,6 @@
     <t>PPSNO</t>
   </si>
   <si>
-    <t>EE</t>
-  </si>
-  <si>
     <t>Refno 0798147 does not exist for Scheme ID 601010
 PPS number 4073312M does not exist for Scheme ID 601010
 Member does not have open Paypoints</t>
@@ -270,7 +267,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>72679.83</t>
+    <t>7721.49</t>
   </si>
   <si>
     <t>Payment Frequency</t>
@@ -300,7 +297,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -309,43 +306,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -596,10 +590,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -628,7 +622,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -802,11 +796,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1451,7 +1448,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1463,7 +1460,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -1480,18 +1477,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -1506,18 +1500,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>931.67</v>
       </c>
       <c r="G2" s="43">
-        <v>931.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -1532,21 +1523,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1558,12 +1546,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>3088.11</v>
       </c>
       <c r="G4" s="43">
-        <v>3088.11</v>
-      </c>
-      <c r="H4" s="43">
         <v>1510.0</v>
       </c>
     </row>
@@ -2041,7 +2026,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2053,7 +2038,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2070,18 +2055,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -2096,18 +2078,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>931.67</v>
       </c>
       <c r="G2" s="43">
-        <v>931.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -2122,21 +2101,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2148,12 +2124,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
@@ -2684,7 +2657,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2696,7 +2669,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2713,18 +2686,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -2739,18 +2709,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>931.67</v>
       </c>
       <c r="G2" s="43">
-        <v>931.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -2765,21 +2732,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2791,21 +2755,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -2817,12 +2778,9 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
-        <v>10666.67</v>
+        <v>426.67</v>
       </c>
       <c r="G5" s="43">
-        <v>426.67</v>
-      </c>
-      <c r="H5" s="43">
         <v>0.0</v>
       </c>
     </row>
@@ -3575,7 +3533,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -3587,7 +3545,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3604,18 +3562,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -3630,18 +3585,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>116458.35</v>
+        <v>3673.31</v>
       </c>
       <c r="G2" s="43">
-        <v>3673.31</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -3656,21 +3608,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3682,21 +3631,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3708,12 +3654,9 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
-        <v>20000.0</v>
+        <v>744.8</v>
       </c>
       <c r="G5" s="43">
-        <v>744.8</v>
-      </c>
-      <c r="H5" s="43">
         <v>413.33</v>
       </c>
     </row>
@@ -4272,7 +4215,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -4284,7 +4227,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4301,18 +4244,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -4327,18 +4267,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>1480.0</v>
       </c>
       <c r="G2" s="43">
-        <v>1480.0</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -4353,21 +4290,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4379,21 +4313,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4405,12 +4336,9 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
-        <v>10000.0</v>
+        <v>566.66</v>
       </c>
       <c r="G5" s="43">
-        <v>566.66</v>
-      </c>
-      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -4969,7 +4897,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -4981,7 +4909,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4998,18 +4926,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -5024,18 +4949,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>22666.67</v>
+        <v>906.67</v>
       </c>
       <c r="G2" s="43">
-        <v>906.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -5050,21 +4972,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>9583.33</v>
+        <v>814.58</v>
       </c>
       <c r="G3" s="43">
-        <v>814.58</v>
-      </c>
-      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5076,12 +4995,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>19333.33</v>
+        <v>1598.87</v>
       </c>
       <c r="G4" s="43">
-        <v>1598.87</v>
-      </c>
-      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -5096,7 +5012,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5108,7 +5024,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5125,18 +5041,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -5151,18 +5064,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>1480.0</v>
       </c>
       <c r="G2" s="43">
-        <v>1480.0</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -5177,21 +5087,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5203,21 +5110,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5229,12 +5133,9 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
-        <v>10000.0</v>
+        <v>566.66</v>
       </c>
       <c r="G5" s="43">
-        <v>566.66</v>
-      </c>
-      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -5793,7 +5694,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5805,7 +5706,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5822,18 +5723,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -5848,18 +5746,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>1480.0</v>
       </c>
       <c r="G2" s="43">
-        <v>1480.0</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -5874,21 +5769,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5900,21 +5792,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>2324.83</v>
       </c>
       <c r="G4" s="43">
-        <v>2324.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5926,12 +5815,9 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
-        <v>10000.0</v>
+        <v>566.66</v>
       </c>
       <c r="G5" s="43">
-        <v>566.66</v>
-      </c>
-      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -5963,75 +5849,69 @@
     <col min="10" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="43" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="43">
-        <v>64958.34</v>
+        <v>5221.49</v>
       </c>
       <c r="B2" s="43">
-        <v>5221.49</v>
-      </c>
-      <c r="C2" s="43">
         <v>2500.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="F12" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="G12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="I12" s="48" t="s">
         <v>71</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -6039,25 +5919,25 @@
         <v>28</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="D13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="E13" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="F13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="43" t="s">
+      <c r="H13" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>78</v>
@@ -6071,10 +5951,10 @@
         <v>79</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>80</v>
@@ -6100,112 +5980,112 @@
         <v>84</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>75</v>
-      </c>
       <c r="E15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="H15" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="D16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="F16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="G16" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="H16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="43" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="D17" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="H17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="43" t="s">
+      <c r="I17" s="43" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="D18" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="H18" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="I18" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -6213,28 +6093,28 @@
         <v>28</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="F19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="43" t="s">
+      <c r="G19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="I19" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -6242,28 +6122,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="G20" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="I20" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -6271,28 +6151,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="I21" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6565,7 +6445,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6577,7 +6457,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6594,18 +6474,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -6620,18 +6497,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>22666.67</v>
+        <v>906.67</v>
       </c>
       <c r="G2" s="43">
-        <v>906.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -6646,21 +6520,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>9583.33</v>
+        <v>814.58</v>
       </c>
       <c r="G3" s="43">
-        <v>814.58</v>
-      </c>
-      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6672,12 +6543,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>19333.33</v>
+        <v>1598.87</v>
       </c>
       <c r="G4" s="43">
-        <v>1598.87</v>
-      </c>
-      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -6951,7 +6819,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6963,7 +6831,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6980,18 +6848,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -7006,18 +6871,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>22666.67</v>
+        <v>906.67</v>
       </c>
       <c r="G2" s="43">
-        <v>906.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -7032,21 +6894,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>9583.33</v>
+        <v>814.58</v>
       </c>
       <c r="G3" s="43">
-        <v>814.58</v>
-      </c>
-      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7058,12 +6917,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>19333.33</v>
+        <v>1598.87</v>
       </c>
       <c r="G4" s="43">
-        <v>1598.87</v>
-      </c>
-      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -7376,7 +7232,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -7388,7 +7244,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -7405,18 +7261,15 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -7431,18 +7284,15 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>23291.67</v>
+        <v>7211.67</v>
       </c>
       <c r="G2" s="43">
-        <v>7211.67</v>
-      </c>
-      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
-        <v>55</v>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -7457,21 +7307,18 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>10000.0</v>
+        <v>850.0</v>
       </c>
       <c r="G3" s="43">
-        <v>850.0</v>
-      </c>
-      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7483,12 +7330,9 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>21666.67</v>
+        <v>1791.83</v>
       </c>
       <c r="G4" s="43">
-        <v>1791.83</v>
-      </c>
-      <c r="H4" s="43">
         <v>650.0</v>
       </c>
     </row>
